--- a/data/compiled/releases.xlsx
+++ b/data/compiled/releases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Semantic Tag</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>Benchmarks</t>
-  </si>
-  <si>
-    <t>Correlation Coefficient</t>
   </si>
   <si>
     <t>https://www.python.org/ftp/python/3.11.2/python-3.11.2-amd64.exe</t>
@@ -829,7 +826,7 @@
                   <c:v>0.59629279400000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.544524446666666</c:v>
+                  <c:v>0.543813829333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.51565523933333302</c:v>
@@ -1585,7 +1582,7 @@
                   <c:v>0.12684515333333299</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13549472333333301</c:v>
+                  <c:v>6.7074236666666606E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6.7465032666666605E-2</c:v>
@@ -2346,7 +2343,7 @@
                   <c:v>4.8052894746666599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.738731733999899</c:v>
+                  <c:v>4.2979397446666603</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.2020416193333299</c:v>
@@ -3107,7 +3104,7 @@
                   <c:v>0.454570786666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.37945116599999901</c:v>
+                  <c:v>0.37412608600000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.374153351333333</c:v>
@@ -3854,7 +3851,7 @@
                   <c:v>1.05771843333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.88533763333333304</c:v>
+                  <c:v>0.91127672133333304</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.89955209733333297</c:v>
@@ -4601,7 +4598,7 @@
                   <c:v>0.61421319600000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.472249372666666</c:v>
+                  <c:v>0.51497693600000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.47338703599999998</c:v>
@@ -5362,7 +5359,7 @@
                   <c:v>0.32594873266666602</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.27852338666666598</c:v>
+                  <c:v>0.29270293533333303</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.27784812199999998</c:v>
@@ -6118,7 +6115,7 @@
                   <c:v>0.85084277866666602</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.67576790466666603</c:v>
+                  <c:v>0.71867900266666596</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.68302874466666597</c:v>
@@ -6860,7 +6857,7 @@
                   <c:v>1.3472466506666601</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2455967406666599</c:v>
+                  <c:v>1.26022107466666</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.2357740806666599</c:v>
@@ -12754,8 +12751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="33" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView tabSelected="1" topLeftCell="L76" zoomScale="67" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AB60" sqref="AB60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12814,6 +12811,9 @@
       <c r="L1" t="s">
         <v>59</v>
       </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
       <c r="Q1" t="s">
         <v>51</v>
       </c>
@@ -12883,40 +12883,40 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <f>CORREL($C$2:$C$49,D2:D49)</f>
-        <v>0.36122726025273211</v>
+        <f t="shared" ref="Q2:Y2" si="0">CORREL($C$2:$C$49,D2:D49)</f>
+        <v>0.36121990751524008</v>
       </c>
       <c r="R2">
-        <f>CORREL($C$2:$C$49,E2:E49)</f>
-        <v>0.19182282794709049</v>
+        <f t="shared" si="0"/>
+        <v>0.17424522359462596</v>
       </c>
       <c r="S2">
-        <f>CORREL($C$2:$C$49,F2:F49)</f>
-        <v>0.1552098573277606</v>
+        <f t="shared" si="0"/>
+        <v>0.35175822321027667</v>
       </c>
       <c r="T2">
-        <f>CORREL($C$2:$C$49,G2:G49)</f>
-        <v>0.38105503149231446</v>
+        <f t="shared" si="0"/>
+        <v>0.38093672246462884</v>
       </c>
       <c r="U2">
-        <f>CORREL($C$2:$C$49,H2:H49)</f>
-        <v>0.39502631696806362</v>
+        <f t="shared" si="0"/>
+        <v>0.39566599674965036</v>
       </c>
       <c r="V2">
-        <f>CORREL($C$2:$C$49,I2:I49)</f>
-        <v>0.380044936958155</v>
+        <f t="shared" si="0"/>
+        <v>0.38135769971267897</v>
       </c>
       <c r="W2">
-        <f>CORREL($C$2:$C$49,J2:J49)</f>
-        <v>0.37210876338601406</v>
+        <f t="shared" si="0"/>
+        <v>0.37348707987460672</v>
       </c>
       <c r="X2">
-        <f>CORREL($C$2:$C$49,K2:K49)</f>
-        <v>0.38145470098520934</v>
+        <f t="shared" si="0"/>
+        <v>0.38307042863450652</v>
       </c>
       <c r="Y2">
-        <f>CORREL($C$2:$C$49,L2:L49)</f>
-        <v>0.34156123076514516</v>
+        <f t="shared" si="0"/>
+        <v>0.34175101797785623</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -13184,12 +13184,6 @@
       <c r="L9">
         <v>1.053887394</v>
       </c>
-      <c r="AF9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -13228,12 +13222,6 @@
       <c r="L10">
         <v>0.98078847466666597</v>
       </c>
-      <c r="AF10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG10">
-        <v>0.36122726025273211</v>
-      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -13272,12 +13260,6 @@
       <c r="L11">
         <v>0.95539377466666597</v>
       </c>
-      <c r="AF11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG11">
-        <v>0.19182282794709049</v>
-      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -13316,12 +13298,6 @@
       <c r="L12">
         <v>0.97516108999999995</v>
       </c>
-      <c r="AF12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG12">
-        <v>0.1552098573277606</v>
-      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -13361,10 +13337,10 @@
         <v>0.97225508533333305</v>
       </c>
       <c r="AF13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG13">
-        <v>0.38105503149231446</v>
+        <v>61</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
@@ -13405,10 +13381,10 @@
         <v>0.97241235400000003</v>
       </c>
       <c r="AF14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG14">
-        <v>0.39502631696806362</v>
+        <v>0.36121990751524008</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -13449,10 +13425,10 @@
         <v>1.09620848266666</v>
       </c>
       <c r="AF15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG15">
-        <v>0.380044936958155</v>
+        <v>0.17424522359462596</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
@@ -13493,10 +13469,10 @@
         <v>0.96405347133333297</v>
       </c>
       <c r="AF16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG16">
-        <v>0.37210876338601406</v>
+        <v>0.35175822321027667</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
@@ -13537,10 +13513,10 @@
         <v>0.96417977199999905</v>
       </c>
       <c r="AF17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AG17">
-        <v>0.38145470098520934</v>
+        <v>0.38093672246462884</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
@@ -13581,10 +13557,10 @@
         <v>1.003910342</v>
       </c>
       <c r="AF18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG18">
-        <v>0.34156123076514516</v>
+        <v>0.39566599674965036</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.35">
@@ -13624,6 +13600,12 @@
       <c r="L19">
         <v>0.97704651133333298</v>
       </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19">
+        <v>0.38135769971267897</v>
+      </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -13662,6 +13644,12 @@
       <c r="L20">
         <v>1.0208734739999901</v>
       </c>
+      <c r="AF20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG20">
+        <v>0.37348707987460672</v>
+      </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -13700,6 +13688,12 @@
       <c r="L21">
         <v>1.0074927786666601</v>
       </c>
+      <c r="AF21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21">
+        <v>0.38307042863450652</v>
+      </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -13738,6 +13732,12 @@
       <c r="L22">
         <v>0.92583636133333302</v>
       </c>
+      <c r="AF22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG22">
+        <v>0.34175101797785623</v>
+      </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -14282,31 +14282,31 @@
         <v>68</v>
       </c>
       <c r="D37">
-        <v>0.544524446666666</v>
+        <v>0.543813829333333</v>
       </c>
       <c r="E37">
-        <v>0.13549472333333301</v>
+        <v>6.7074236666666606E-2</v>
       </c>
       <c r="F37">
-        <v>19.738731733999899</v>
+        <v>4.2979397446666603</v>
       </c>
       <c r="G37">
-        <v>0.37945116599999901</v>
+        <v>0.37412608600000002</v>
       </c>
       <c r="H37">
-        <v>0.88533763333333304</v>
+        <v>0.91127672133333304</v>
       </c>
       <c r="I37">
-        <v>0.472249372666666</v>
+        <v>0.51497693600000005</v>
       </c>
       <c r="J37">
-        <v>0.27852338666666598</v>
+        <v>0.29270293533333303</v>
       </c>
       <c r="K37">
-        <v>0.67576790466666603</v>
+        <v>0.71867900266666596</v>
       </c>
       <c r="L37">
-        <v>1.2455967406666599</v>
+        <v>1.26022107466666</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -14432,7 +14432,7 @@
         <v>44009</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C47" si="0">B41-B42</f>
+        <f t="shared" ref="C41:C47" si="1">B41-B42</f>
         <v>109</v>
       </c>
       <c r="D41">
@@ -14471,7 +14471,7 @@
         <v>43900</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="D42">
@@ -14510,7 +14510,7 @@
         <v>43817</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D43">
@@ -14549,7 +14549,7 @@
         <v>43753</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="D44">
@@ -14588,7 +14588,7 @@
         <v>43654</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="D45">
@@ -14627,7 +14627,7 @@
         <v>43549</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D46">
@@ -14666,7 +14666,7 @@
         <v>43458</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="D47">
@@ -14806,7 +14806,7 @@
         <v>44965</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -14817,7 +14817,7 @@
         <v>44901</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -14828,7 +14828,7 @@
         <v>44858</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -14839,7 +14839,7 @@
         <v>44965</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -14850,7 +14850,7 @@
         <v>44901</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -14861,7 +14861,7 @@
         <v>44845</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -14872,7 +14872,7 @@
         <v>44810</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -14883,7 +14883,7 @@
         <v>44775</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -14894,7 +14894,7 @@
         <v>44718</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -14905,7 +14905,7 @@
         <v>44644</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -14916,7 +14916,7 @@
         <v>44636</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -14927,7 +14927,7 @@
         <v>44575</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -14938,7 +14938,7 @@
         <v>44536</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -14949,7 +14949,7 @@
         <v>44473</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -14960,7 +14960,7 @@
         <v>44698</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -14971,7 +14971,7 @@
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -14982,7 +14982,7 @@
         <v>44636</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -14993,7 +14993,7 @@
         <v>44575</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -15004,7 +15004,7 @@
         <v>44515</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -15015,7 +15015,7 @@
         <v>44505</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -15026,7 +15026,7 @@
         <v>44438</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -15037,7 +15037,7 @@
         <v>44375</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -15048,7 +15048,7 @@
         <v>44319</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -15059,7 +15059,7 @@
         <v>44290</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -15070,7 +15070,7 @@
         <v>44246</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -15081,7 +15081,7 @@
         <v>44172</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -15092,7 +15092,7 @@
         <v>44109</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -15103,7 +15103,7 @@
         <v>44319</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -15114,7 +15114,7 @@
         <v>44288</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -15125,7 +15125,7 @@
         <v>44246</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -15136,7 +15136,7 @@
         <v>44186</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -15147,7 +15147,7 @@
         <v>44098</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -15158,7 +15158,7 @@
         <v>44032</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -15169,7 +15169,7 @@
         <v>44025</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -15180,7 +15180,7 @@
         <v>43964</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -15191,7 +15191,7 @@
         <v>43885</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -15202,7 +15202,7 @@
         <v>43817</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -15213,7 +15213,7 @@
         <v>43752</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -15224,7 +15224,7 @@
         <v>44060</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -15235,7 +15235,7 @@
         <v>44009</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -15246,7 +15246,7 @@
         <v>43900</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -15257,7 +15257,7 @@
         <v>43817</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -15268,7 +15268,7 @@
         <v>43753</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -15279,7 +15279,7 @@
         <v>43654</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -15290,7 +15290,7 @@
         <v>43549</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -15301,7 +15301,7 @@
         <v>43458</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -15312,7 +15312,7 @@
         <v>43393</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -15323,7 +15323,7 @@
         <v>43278</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
